--- a/team_specific_matrix/NIU_A.xlsx
+++ b/team_specific_matrix/NIU_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2307692307692308</v>
+        <v>0.2507552870090635</v>
       </c>
       <c r="C2">
-        <v>0.4855769230769231</v>
+        <v>0.4531722054380665</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03365384615384615</v>
+        <v>0.02719033232628399</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1490384615384615</v>
+        <v>0.1631419939577039</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1009615384615385</v>
+        <v>0.1057401812688822</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009345794392523364</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="C3">
-        <v>0.02803738317757009</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01869158878504673</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7757009345794392</v>
+        <v>0.7784810126582279</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1682242990654206</v>
+        <v>0.1645569620253164</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1290322580645161</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6774193548387096</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1935483870967742</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03333333333333333</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01333333333333333</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08666666666666667</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2733333333333333</v>
+        <v>0.2744186046511628</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03333333333333333</v>
+        <v>0.02790697674418605</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1066666666666667</v>
+        <v>0.1069767441860465</v>
       </c>
       <c r="R6">
-        <v>0.07333333333333333</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="S6">
-        <v>0.38</v>
+        <v>0.3813953488372093</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1021897810218978</v>
+        <v>0.1173469387755102</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0291970802919708</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08759124087591241</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1313868613138686</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0218978102189781</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1167883211678832</v>
+        <v>0.1173469387755102</v>
       </c>
       <c r="R7">
-        <v>0.08759124087591241</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="S7">
-        <v>0.4233576642335766</v>
+        <v>0.413265306122449</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1045296167247387</v>
+        <v>0.1138392857142857</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02090592334494774</v>
+        <v>0.02008928571428572</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06620209059233449</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08710801393728224</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01742160278745645</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1672473867595819</v>
+        <v>0.1674107142857143</v>
       </c>
       <c r="R8">
-        <v>0.1254355400696864</v>
+        <v>0.1205357142857143</v>
       </c>
       <c r="S8">
-        <v>0.4111498257839721</v>
+        <v>0.4129464285714285</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1048387096774194</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02419354838709677</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07258064516129033</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1451612903225807</v>
+        <v>0.1467391304347826</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04032258064516129</v>
+        <v>0.03804347826086957</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1048387096774194</v>
+        <v>0.1032608695652174</v>
       </c>
       <c r="R9">
-        <v>0.06451612903225806</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="S9">
-        <v>0.4435483870967742</v>
+        <v>0.4456521739130435</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.128476821192053</v>
+        <v>0.1255487269534679</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02251655629139073</v>
+        <v>0.02458296751536436</v>
       </c>
       <c r="E10">
-        <v>0.001324503311258278</v>
+        <v>0.000877963125548727</v>
       </c>
       <c r="F10">
-        <v>0.06754966887417219</v>
+        <v>0.06760316066725197</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1072847682119205</v>
+        <v>0.1027216856892011</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01456953642384106</v>
+        <v>0.01843722563652327</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.223841059602649</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="R10">
-        <v>0.07019867549668875</v>
+        <v>0.06584723441615452</v>
       </c>
       <c r="S10">
-        <v>0.3642384105960265</v>
+        <v>0.3590869183494294</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1336405529953917</v>
+        <v>0.157556270096463</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08294930875576037</v>
+        <v>0.06752411575562701</v>
       </c>
       <c r="K11">
-        <v>0.1935483870967742</v>
+        <v>0.2090032154340836</v>
       </c>
       <c r="L11">
-        <v>0.5576036866359447</v>
+        <v>0.5401929260450161</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03225806451612903</v>
+        <v>0.02572347266881029</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7235772357723578</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2439024390243902</v>
+        <v>0.2514619883040936</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.008130081300813009</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02439024390243903</v>
+        <v>0.01754385964912281</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02702702702702703</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G13">
-        <v>0.5945945945945946</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2972972972972973</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08108108108108109</v>
+        <v>0.06521739130434782</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02380952380952381</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2142857142857143</v>
+        <v>0.185792349726776</v>
       </c>
       <c r="I15">
-        <v>0.04761904761904762</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="J15">
-        <v>0.3174603174603174</v>
+        <v>0.3224043715846995</v>
       </c>
       <c r="K15">
-        <v>0.03968253968253968</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007936507936507936</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07142857142857142</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2777777777777778</v>
+        <v>0.2677595628415301</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007633587786259542</v>
+        <v>0.01</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1908396946564886</v>
+        <v>0.205</v>
       </c>
       <c r="I16">
-        <v>0.0916030534351145</v>
+        <v>0.1</v>
       </c>
       <c r="J16">
-        <v>0.3740458015267176</v>
+        <v>0.38</v>
       </c>
       <c r="K16">
-        <v>0.1297709923664122</v>
+        <v>0.105</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03053435114503817</v>
+        <v>0.02</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03816793893129771</v>
+        <v>0.035</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1374045801526718</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0267175572519084</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1603053435114504</v>
+        <v>0.1446078431372549</v>
       </c>
       <c r="I17">
-        <v>0.09923664122137404</v>
+        <v>0.1004901960784314</v>
       </c>
       <c r="J17">
-        <v>0.3931297709923664</v>
+        <v>0.4215686274509804</v>
       </c>
       <c r="K17">
-        <v>0.1106870229007634</v>
+        <v>0.1127450980392157</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02290076335877863</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="N17">
-        <v>0.003816793893129771</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="O17">
-        <v>0.04580152671755725</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1374045801526718</v>
+        <v>0.1274509803921569</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01680672268907563</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2689075630252101</v>
+        <v>0.2625698324022346</v>
       </c>
       <c r="I18">
-        <v>0.07563025210084033</v>
+        <v>0.08379888268156424</v>
       </c>
       <c r="J18">
-        <v>0.4033613445378151</v>
+        <v>0.3798882681564246</v>
       </c>
       <c r="K18">
-        <v>0.09243697478991597</v>
+        <v>0.1173184357541899</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02521008403361345</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05882352941176471</v>
+        <v>0.06145251396648044</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05882352941176471</v>
+        <v>0.06145251396648044</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0146163215590743</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.197320341047503</v>
+        <v>0.2189542483660131</v>
       </c>
       <c r="I19">
-        <v>0.08891595615103533</v>
+        <v>0.08006535947712418</v>
       </c>
       <c r="J19">
-        <v>0.3337393422655298</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="K19">
-        <v>0.1327649208282582</v>
+        <v>0.1168300653594771</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0292326431181486</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="N19">
-        <v>0.001218026796589525</v>
+        <v>0.0008169934640522876</v>
       </c>
       <c r="O19">
-        <v>0.06090133982947625</v>
+        <v>0.05800653594771242</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1412911084043849</v>
+        <v>0.1429738562091503</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/NIU_A.xlsx
+++ b/team_specific_matrix/NIU_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2507552870090635</v>
+        <v>0.2513812154696133</v>
       </c>
       <c r="C2">
-        <v>0.4531722054380665</v>
+        <v>0.4419889502762431</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02719033232628399</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1631419939577039</v>
+        <v>0.1685082872928177</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1057401812688822</v>
+        <v>0.1104972375690608</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006329113924050633</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="C3">
-        <v>0.03164556962025317</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0189873417721519</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7784810126582279</v>
+        <v>0.7751479289940828</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1645569620253164</v>
+        <v>0.1715976331360947</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1458333333333333</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5833333333333334</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2708333333333333</v>
+        <v>0.2641509433962264</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05116279069767442</v>
+        <v>0.0546218487394958</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009302325581395349</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07441860465116279</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2744186046511628</v>
+        <v>0.2563025210084033</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02790697674418605</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1069767441860465</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="R6">
-        <v>0.07441860465116279</v>
+        <v>0.07983193277310924</v>
       </c>
       <c r="S6">
-        <v>0.3813953488372093</v>
+        <v>0.3907563025210084</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1173469387755102</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02551020408163265</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08163265306122448</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1224489795918367</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02040816326530612</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1173469387755102</v>
+        <v>0.125</v>
       </c>
       <c r="R7">
-        <v>0.1020408163265306</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="S7">
-        <v>0.413265306122449</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1138392857142857</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02008928571428572</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.001984126984126984</v>
       </c>
       <c r="F8">
-        <v>0.06696428571428571</v>
+        <v>0.06547619047619048</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08482142857142858</v>
+        <v>0.09126984126984126</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01339285714285714</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1674107142857143</v>
+        <v>0.1646825396825397</v>
       </c>
       <c r="R8">
-        <v>0.1205357142857143</v>
+        <v>0.125</v>
       </c>
       <c r="S8">
-        <v>0.4129464285714285</v>
+        <v>0.4146825396825397</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09782608695652174</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03260869565217391</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05434782608695652</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1467391304347826</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03804347826086957</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1032608695652174</v>
+        <v>0.1256038647342995</v>
       </c>
       <c r="R9">
-        <v>0.08152173913043478</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="S9">
-        <v>0.4456521739130435</v>
+        <v>0.4202898550724637</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1255487269534679</v>
+        <v>0.1248012718600954</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02458296751536436</v>
+        <v>0.02305246422893482</v>
       </c>
       <c r="E10">
-        <v>0.000877963125548727</v>
+        <v>0.000794912559618442</v>
       </c>
       <c r="F10">
-        <v>0.06760316066725197</v>
+        <v>0.07233704292527822</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1027216856892011</v>
+        <v>0.1017488076311606</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01843722563652327</v>
+        <v>0.02066772655007949</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2352941176470588</v>
+        <v>0.2329093799682035</v>
       </c>
       <c r="R10">
-        <v>0.06584723441615452</v>
+        <v>0.06677265500794913</v>
       </c>
       <c r="S10">
-        <v>0.3590869183494294</v>
+        <v>0.3569157392686804</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.157556270096463</v>
+        <v>0.15625</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06752411575562701</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="K11">
-        <v>0.2090032154340836</v>
+        <v>0.2159090909090909</v>
       </c>
       <c r="L11">
-        <v>0.5401929260450161</v>
+        <v>0.5340909090909091</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02572347266881029</v>
+        <v>0.02556818181818182</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7192982456140351</v>
+        <v>0.71875</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2514619883040936</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01169590643274854</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01754385964912281</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G13">
-        <v>0.6086956521739131</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3043478260869565</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06521739130434782</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0273224043715847</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.185792349726776</v>
+        <v>0.178743961352657</v>
       </c>
       <c r="I15">
-        <v>0.07103825136612021</v>
+        <v>0.06763285024154589</v>
       </c>
       <c r="J15">
-        <v>0.3224043715846995</v>
+        <v>0.3091787439613526</v>
       </c>
       <c r="K15">
-        <v>0.0546448087431694</v>
+        <v>0.05314009661835749</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00546448087431694</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06557377049180328</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2677595628415301</v>
+        <v>0.3043478260869565</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.205</v>
+        <v>0.2046511627906977</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="J16">
-        <v>0.38</v>
+        <v>0.3767441860465116</v>
       </c>
       <c r="K16">
-        <v>0.105</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.035</v>
+        <v>0.03255813953488372</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.145</v>
+        <v>0.1534883720930233</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02205882352941177</v>
+        <v>0.01978021978021978</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1446078431372549</v>
+        <v>0.156043956043956</v>
       </c>
       <c r="I17">
-        <v>0.1004901960784314</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="J17">
-        <v>0.4215686274509804</v>
+        <v>0.4175824175824176</v>
       </c>
       <c r="K17">
-        <v>0.1127450980392157</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02450980392156863</v>
+        <v>0.02417582417582418</v>
       </c>
       <c r="N17">
-        <v>0.002450980392156863</v>
+        <v>0.002197802197802198</v>
       </c>
       <c r="O17">
-        <v>0.04411764705882353</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1274509803921569</v>
+        <v>0.1252747252747253</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01675977653631285</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2625698324022346</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="I18">
-        <v>0.08379888268156424</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="J18">
-        <v>0.3798882681564246</v>
+        <v>0.3930348258706468</v>
       </c>
       <c r="K18">
-        <v>0.1173184357541899</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01675977653631285</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06145251396648044</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06145251396648044</v>
+        <v>0.06965174129353234</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0130718954248366</v>
+        <v>0.01174743024963289</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2189542483660131</v>
+        <v>0.2217327459618209</v>
       </c>
       <c r="I19">
-        <v>0.08006535947712418</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="J19">
-        <v>0.3431372549019608</v>
+        <v>0.342143906020558</v>
       </c>
       <c r="K19">
-        <v>0.1168300653594771</v>
+        <v>0.1204111600587372</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0261437908496732</v>
+        <v>0.02349486049926578</v>
       </c>
       <c r="N19">
-        <v>0.0008169934640522876</v>
+        <v>0.0007342143906020558</v>
       </c>
       <c r="O19">
-        <v>0.05800653594771242</v>
+        <v>0.05800293685756241</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1429738562091503</v>
+        <v>0.1380323054331865</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/NIU_A.xlsx
+++ b/team_specific_matrix/NIU_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2513812154696133</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C2">
-        <v>0.4419889502762431</v>
+        <v>0.4381443298969072</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02762430939226519</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1685082872928177</v>
+        <v>0.1675257731958763</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1104972375690608</v>
+        <v>0.1108247422680412</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005917159763313609</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="C3">
-        <v>0.02958579881656805</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01775147928994083</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7751479289940828</v>
+        <v>0.7747252747252747</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1715976331360947</v>
+        <v>0.1703296703296703</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1320754716981132</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6037735849056604</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2641509433962264</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0546218487394958</v>
+        <v>0.05905511811023622</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01260504201680672</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07142857142857142</v>
+        <v>0.06692913385826772</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2563025210084033</v>
+        <v>0.2637795275590551</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02521008403361345</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1092436974789916</v>
+        <v>0.1141732283464567</v>
       </c>
       <c r="R6">
-        <v>0.07983193277310924</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="S6">
-        <v>0.3907563025210084</v>
+        <v>0.3818897637795275</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1203703703703704</v>
+        <v>0.1179039301310044</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02777777777777778</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07870370370370371</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1203703703703704</v>
+        <v>0.1266375545851528</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02777777777777778</v>
+        <v>0.03056768558951965</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.125</v>
+        <v>0.1222707423580786</v>
       </c>
       <c r="R7">
-        <v>0.09259259259259259</v>
+        <v>0.09170305676855896</v>
       </c>
       <c r="S7">
-        <v>0.4074074074074074</v>
+        <v>0.4061135371179039</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1031746031746032</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01984126984126984</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E8">
-        <v>0.001984126984126984</v>
+        <v>0.001886792452830189</v>
       </c>
       <c r="F8">
-        <v>0.06547619047619048</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09126984126984126</v>
+        <v>0.09056603773584905</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01388888888888889</v>
+        <v>0.01320754716981132</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1646825396825397</v>
+        <v>0.1716981132075472</v>
       </c>
       <c r="R8">
-        <v>0.125</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="S8">
-        <v>0.4146825396825397</v>
+        <v>0.4113207547169812</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0966183574879227</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03381642512077294</v>
+        <v>0.03125</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05797101449275362</v>
+        <v>0.0625</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1449275362318841</v>
+        <v>0.1383928571428572</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04347826086956522</v>
+        <v>0.04017857142857143</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1256038647342995</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="R9">
-        <v>0.07729468599033816</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="S9">
-        <v>0.4202898550724637</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1248012718600954</v>
+        <v>0.1233480176211454</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02305246422893482</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="E10">
-        <v>0.000794912559618442</v>
+        <v>0.0007342143906020558</v>
       </c>
       <c r="F10">
-        <v>0.07233704292527822</v>
+        <v>0.07195301027900147</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1017488076311606</v>
+        <v>0.1071953010279001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02066772655007949</v>
+        <v>0.02055800293685756</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2329093799682035</v>
+        <v>0.2320117474302496</v>
       </c>
       <c r="R10">
-        <v>0.06677265500794913</v>
+        <v>0.06681350954478708</v>
       </c>
       <c r="S10">
-        <v>0.3569157392686804</v>
+        <v>0.355359765051395</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.15625</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06818181818181818</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K11">
-        <v>0.2159090909090909</v>
+        <v>0.2195767195767196</v>
       </c>
       <c r="L11">
-        <v>0.5340909090909091</v>
+        <v>0.5264550264550265</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02556818181818182</v>
+        <v>0.02645502645502645</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.71875</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.25</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="L12">
-        <v>0.01041666666666667</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02083333333333333</v>
+        <v>0.01970443349753695</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G13">
-        <v>0.5957446808510638</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2978723404255319</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0851063829787234</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02415458937198068</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.178743961352657</v>
+        <v>0.1809954751131222</v>
       </c>
       <c r="I15">
-        <v>0.06763285024154589</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="J15">
-        <v>0.3091787439613526</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K15">
-        <v>0.05314009661835749</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004830917874396135</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="O15">
-        <v>0.05797101449275362</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3043478260869565</v>
+        <v>0.3031674208144796</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009302325581395349</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2046511627906977</v>
+        <v>0.206140350877193</v>
       </c>
       <c r="I16">
-        <v>0.1023255813953488</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="J16">
-        <v>0.3767441860465116</v>
+        <v>0.3903508771929824</v>
       </c>
       <c r="K16">
-        <v>0.1023255813953488</v>
+        <v>0.1008771929824561</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0186046511627907</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03255813953488372</v>
+        <v>0.03070175438596491</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1534883720930233</v>
+        <v>0.1491228070175439</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01978021978021978</v>
+        <v>0.01844262295081967</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.156043956043956</v>
+        <v>0.1516393442622951</v>
       </c>
       <c r="I17">
-        <v>0.0989010989010989</v>
+        <v>0.1004098360655738</v>
       </c>
       <c r="J17">
-        <v>0.4175824175824176</v>
+        <v>0.4180327868852459</v>
       </c>
       <c r="K17">
-        <v>0.1098901098901099</v>
+        <v>0.1086065573770492</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02417582417582418</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="N17">
-        <v>0.002197802197802198</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="O17">
-        <v>0.04615384615384616</v>
+        <v>0.04508196721311476</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1252747252747253</v>
+        <v>0.1290983606557377</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01492537313432836</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2537313432835821</v>
+        <v>0.2418604651162791</v>
       </c>
       <c r="I18">
-        <v>0.07960199004975124</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="J18">
-        <v>0.3930348258706468</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="K18">
-        <v>0.1194029850746269</v>
+        <v>0.1255813953488372</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01492537313432836</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05472636815920398</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06965174129353234</v>
+        <v>0.07441860465116279</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01174743024963289</v>
+        <v>0.01169993117687543</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2217327459618209</v>
+        <v>0.2188575361321404</v>
       </c>
       <c r="I19">
-        <v>0.08370044052863436</v>
+        <v>0.08671713695801789</v>
       </c>
       <c r="J19">
-        <v>0.342143906020558</v>
+        <v>0.3448038540949759</v>
       </c>
       <c r="K19">
-        <v>0.1204111600587372</v>
+        <v>0.1197522367515485</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02349486049926578</v>
+        <v>0.02202339986235375</v>
       </c>
       <c r="N19">
-        <v>0.0007342143906020558</v>
+        <v>0.0006882312456985547</v>
       </c>
       <c r="O19">
-        <v>0.05800293685756241</v>
+        <v>0.05987611837577426</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1380323054331865</v>
+        <v>0.1355815554026153</v>
       </c>
     </row>
   </sheetData>
